--- a/ORG_STATION.xlsx
+++ b/ORG_STATION.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD1AE0-78D6-49CF-AA6B-12F9337B214B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E86D9-7AA5-43EB-AC31-6D19DB5A8A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="434">
   <si>
     <t>ORG_STA_PK</t>
   </si>
@@ -1313,6 +1313,15 @@
   </si>
   <si>
     <t>สภานีเรดาร์ตรวจอากาศประจำที่ 2</t>
+  </si>
+  <si>
+    <t>ORG_STA_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_STA_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_STA_STATUS</t>
   </si>
 </sst>
 </file>
@@ -1633,20 +1642,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:F296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293:A296"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" customWidth="1"/>
-    <col min="2" max="3" width="47.54296875" customWidth="1"/>
-    <col min="4" max="11" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="11" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1656,8 +1665,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39001</v>
       </c>
@@ -1668,7 +1686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>39002</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39003</v>
       </c>
@@ -1690,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39004</v>
       </c>
@@ -1701,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39005</v>
       </c>
@@ -1712,7 +1730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39006</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39007</v>
       </c>
@@ -1734,7 +1752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39008</v>
       </c>
@@ -1745,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39009</v>
       </c>
@@ -1756,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39010</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39011</v>
       </c>
@@ -1778,7 +1796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39012</v>
       </c>
@@ -1789,7 +1807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39013</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39014</v>
       </c>
@@ -1811,7 +1829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39015</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39016</v>
       </c>
@@ -1833,7 +1851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39017</v>
       </c>
@@ -1844,7 +1862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39018</v>
       </c>
@@ -1855,7 +1873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39019</v>
       </c>
@@ -1866,7 +1884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39020</v>
       </c>
@@ -1877,7 +1895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39021</v>
       </c>
@@ -1888,7 +1906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39022</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39023</v>
       </c>
@@ -1910,7 +1928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39024</v>
       </c>
@@ -1921,7 +1939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>39025</v>
       </c>
@@ -1932,7 +1950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>39026</v>
       </c>
@@ -1943,7 +1961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>39027</v>
       </c>
@@ -1954,7 +1972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>39028</v>
       </c>
@@ -1965,7 +1983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>39029</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39030</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39031</v>
       </c>
@@ -1998,7 +2016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>39032</v>
       </c>
@@ -2009,7 +2027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>39033</v>
       </c>
@@ -2020,7 +2038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>39034</v>
       </c>
@@ -2031,7 +2049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>39035</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>39036</v>
       </c>
@@ -2053,7 +2071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39037</v>
       </c>
@@ -2064,7 +2082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39038</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39039</v>
       </c>
@@ -2086,7 +2104,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39040</v>
       </c>
@@ -2097,7 +2115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39041</v>
       </c>
@@ -2108,7 +2126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39042</v>
       </c>
@@ -2119,7 +2137,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>39043</v>
       </c>
@@ -2130,7 +2148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>39044</v>
       </c>
@@ -2141,7 +2159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>39045</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>39046</v>
       </c>
@@ -2163,7 +2181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>39047</v>
       </c>
@@ -2174,7 +2192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>39048</v>
       </c>
@@ -2185,7 +2203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>39049</v>
       </c>
@@ -2196,7 +2214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>39050</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>39051</v>
       </c>
@@ -2218,7 +2236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>39052</v>
       </c>
@@ -2229,7 +2247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>39053</v>
       </c>
@@ -2240,7 +2258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>39054</v>
       </c>
@@ -2251,7 +2269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>39055</v>
       </c>
@@ -2262,7 +2280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>39056</v>
       </c>
@@ -2273,7 +2291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>39057</v>
       </c>
@@ -2284,7 +2302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>39058</v>
       </c>
@@ -2295,7 +2313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>39059</v>
       </c>
@@ -2306,7 +2324,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>39060</v>
       </c>
@@ -2317,7 +2335,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>39061</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>39062</v>
       </c>
@@ -2339,7 +2357,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>39063</v>
       </c>
@@ -2350,7 +2368,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39064</v>
       </c>
@@ -2361,7 +2379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>39065</v>
       </c>
@@ -2372,7 +2390,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>39066</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>39067</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>39068</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>39069</v>
       </c>
@@ -2416,7 +2434,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>39070</v>
       </c>
@@ -2427,7 +2445,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>39071</v>
       </c>
@@ -2438,7 +2456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>39072</v>
       </c>
@@ -2449,7 +2467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>39073</v>
       </c>
@@ -2460,7 +2478,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>39074</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>39075</v>
       </c>
@@ -2482,7 +2500,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>39076</v>
       </c>
@@ -2493,7 +2511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>39077</v>
       </c>
@@ -2504,7 +2522,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>39078</v>
       </c>
@@ -2515,7 +2533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>39079</v>
       </c>
@@ -2526,7 +2544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>39080</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>39081</v>
       </c>
@@ -2548,7 +2566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>39082</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>39083</v>
       </c>
@@ -2570,7 +2588,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>39084</v>
       </c>
@@ -2581,7 +2599,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>39085</v>
       </c>
@@ -2592,7 +2610,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>39086</v>
       </c>
@@ -2603,7 +2621,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>39087</v>
       </c>
@@ -2614,7 +2632,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>39088</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>39089</v>
       </c>
@@ -2636,7 +2654,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>39090</v>
       </c>
@@ -2647,7 +2665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>39091</v>
       </c>
@@ -2658,7 +2676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>39092</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>39093</v>
       </c>
@@ -2680,7 +2698,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>39094</v>
       </c>
@@ -2691,7 +2709,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>39095</v>
       </c>
@@ -2702,7 +2720,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>39096</v>
       </c>
@@ -2713,7 +2731,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>39097</v>
       </c>
@@ -2724,7 +2742,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>39098</v>
       </c>
@@ -2735,7 +2753,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>39099</v>
       </c>
@@ -2746,7 +2764,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>39100</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>39101</v>
       </c>
@@ -2768,7 +2786,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>39102</v>
       </c>
@@ -2779,7 +2797,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>39103</v>
       </c>
@@ -2790,7 +2808,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>39104</v>
       </c>
@@ -2801,7 +2819,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>39105</v>
       </c>
@@ -2812,7 +2830,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>39106</v>
       </c>
@@ -2823,7 +2841,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>39107</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>39108</v>
       </c>
@@ -2845,7 +2863,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>39109</v>
       </c>
@@ -2856,7 +2874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>39110</v>
       </c>
@@ -2867,7 +2885,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>39111</v>
       </c>
@@ -2878,7 +2896,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>39112</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>39113</v>
       </c>
@@ -2900,7 +2918,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>39114</v>
       </c>
@@ -2911,7 +2929,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>39115</v>
       </c>
@@ -2922,7 +2940,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>39116</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>39117</v>
       </c>
@@ -2944,7 +2962,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>39118</v>
       </c>
@@ -2955,7 +2973,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>39119</v>
       </c>
@@ -2966,7 +2984,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>39120</v>
       </c>
@@ -2977,7 +2995,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>39121</v>
       </c>
@@ -2988,7 +3006,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>39122</v>
       </c>
@@ -2999,7 +3017,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>39123</v>
       </c>
@@ -3010,7 +3028,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>39124</v>
       </c>
@@ -3021,7 +3039,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>39125</v>
       </c>
@@ -3032,7 +3050,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>39126</v>
       </c>
@@ -3043,7 +3061,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>39127</v>
       </c>
@@ -3054,7 +3072,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>39128</v>
       </c>
@@ -3065,7 +3083,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>39129</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>39130</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>39131</v>
       </c>
@@ -3098,7 +3116,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>39132</v>
       </c>
@@ -3109,7 +3127,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>39133</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>39134</v>
       </c>
@@ -3131,7 +3149,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>39135</v>
       </c>
@@ -3142,7 +3160,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>39136</v>
       </c>
@@ -3153,7 +3171,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>39137</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>39138</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>39139</v>
       </c>
@@ -3186,7 +3204,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>39140</v>
       </c>
@@ -3197,7 +3215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>39141</v>
       </c>
@@ -3208,7 +3226,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>39142</v>
       </c>
@@ -3219,7 +3237,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>39143</v>
       </c>
@@ -3230,7 +3248,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>39144</v>
       </c>
@@ -3241,7 +3259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>39145</v>
       </c>
@@ -3252,7 +3270,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>39146</v>
       </c>
@@ -3263,7 +3281,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>39147</v>
       </c>
@@ -3274,7 +3292,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>39148</v>
       </c>
@@ -3285,7 +3303,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>39149</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>39150</v>
       </c>
@@ -3307,7 +3325,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>39151</v>
       </c>
@@ -3318,7 +3336,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>39152</v>
       </c>
@@ -3329,7 +3347,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>39153</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>39154</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>39155</v>
       </c>
@@ -3362,7 +3380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>39156</v>
       </c>
@@ -3373,7 +3391,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>39157</v>
       </c>
@@ -3384,7 +3402,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>39158</v>
       </c>
@@ -3395,7 +3413,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>39159</v>
       </c>
@@ -3406,7 +3424,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>39160</v>
       </c>
@@ -3417,7 +3435,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>39161</v>
       </c>
@@ -3428,7 +3446,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>39162</v>
       </c>
@@ -3439,7 +3457,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>39163</v>
       </c>
@@ -3450,7 +3468,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>39164</v>
       </c>
@@ -3461,7 +3479,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>39165</v>
       </c>
@@ -3472,7 +3490,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>39166</v>
       </c>
@@ -3483,7 +3501,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>39167</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>39168</v>
       </c>
@@ -3505,7 +3523,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>39169</v>
       </c>
@@ -3516,7 +3534,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>39170</v>
       </c>
@@ -3527,7 +3545,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>39171</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>39172</v>
       </c>
@@ -3549,7 +3567,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>39173</v>
       </c>
@@ -3560,7 +3578,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>39174</v>
       </c>
@@ -3571,7 +3589,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>39175</v>
       </c>
@@ -3582,7 +3600,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>39176</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>39177</v>
       </c>
@@ -3604,7 +3622,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>39178</v>
       </c>
@@ -3615,7 +3633,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>39179</v>
       </c>
@@ -3626,7 +3644,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>39180</v>
       </c>
@@ -3637,7 +3655,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>39181</v>
       </c>
@@ -3648,7 +3666,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>39182</v>
       </c>
@@ -3659,7 +3677,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>39183</v>
       </c>
@@ -3670,7 +3688,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>39184</v>
       </c>
@@ -3681,7 +3699,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>39185</v>
       </c>
@@ -3692,7 +3710,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>39186</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>39187</v>
       </c>
@@ -3714,7 +3732,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>39188</v>
       </c>
@@ -3725,7 +3743,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>39189</v>
       </c>
@@ -3736,7 +3754,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>39190</v>
       </c>
@@ -3747,7 +3765,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>39191</v>
       </c>
@@ -3758,7 +3776,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>39192</v>
       </c>
@@ -3769,7 +3787,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>39193</v>
       </c>
@@ -3780,7 +3798,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>39194</v>
       </c>
@@ -3791,7 +3809,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>39195</v>
       </c>
@@ -3802,7 +3820,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>39196</v>
       </c>
@@ -3813,7 +3831,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>39197</v>
       </c>
@@ -3824,7 +3842,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>39198</v>
       </c>
@@ -3835,7 +3853,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>39199</v>
       </c>
@@ -3846,7 +3864,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>39200</v>
       </c>
@@ -3857,7 +3875,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>39201</v>
       </c>
@@ -3868,7 +3886,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>39202</v>
       </c>
@@ -3879,7 +3897,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>39203</v>
       </c>
@@ -3890,7 +3908,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>39204</v>
       </c>
@@ -3901,7 +3919,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>39205</v>
       </c>
@@ -3912,7 +3930,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>39206</v>
       </c>
@@ -3923,7 +3941,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>39207</v>
       </c>
@@ -3934,7 +3952,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>39208</v>
       </c>
@@ -3945,7 +3963,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>39209</v>
       </c>
@@ -3956,7 +3974,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>39210</v>
       </c>
@@ -3967,7 +3985,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>39211</v>
       </c>
@@ -3978,7 +3996,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>39212</v>
       </c>
@@ -3989,7 +4007,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>39213</v>
       </c>
@@ -4000,7 +4018,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>39214</v>
       </c>
@@ -4011,7 +4029,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>39215</v>
       </c>
@@ -4022,7 +4040,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>39216</v>
       </c>
@@ -4033,7 +4051,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>39217</v>
       </c>
@@ -4044,7 +4062,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>39218</v>
       </c>
@@ -4055,7 +4073,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>39219</v>
       </c>
@@ -4066,7 +4084,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>39220</v>
       </c>
@@ -4077,7 +4095,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>39221</v>
       </c>
@@ -4088,7 +4106,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>39222</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>39223</v>
       </c>
@@ -4110,7 +4128,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>39224</v>
       </c>
@@ -4121,7 +4139,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>39225</v>
       </c>
@@ -4132,7 +4150,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>39226</v>
       </c>
@@ -4143,7 +4161,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>39227</v>
       </c>
@@ -4154,7 +4172,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>39228</v>
       </c>
@@ -4165,7 +4183,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>39229</v>
       </c>
@@ -4176,7 +4194,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>39230</v>
       </c>
@@ -4187,7 +4205,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>39231</v>
       </c>
@@ -4198,7 +4216,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>39232</v>
       </c>
@@ -4209,7 +4227,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>39233</v>
       </c>
@@ -4220,7 +4238,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>39234</v>
       </c>
@@ -4231,7 +4249,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>39235</v>
       </c>
@@ -4242,7 +4260,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>39236</v>
       </c>
@@ -4253,7 +4271,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>39237</v>
       </c>
@@ -4264,7 +4282,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>39238</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>39239</v>
       </c>
@@ -4286,7 +4304,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>39240</v>
       </c>
@@ -4297,7 +4315,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>39241</v>
       </c>
@@ -4308,7 +4326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>39242</v>
       </c>
@@ -4319,7 +4337,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>39243</v>
       </c>
@@ -4330,7 +4348,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>39244</v>
       </c>
@@ -4341,7 +4359,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>39245</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>39246</v>
       </c>
@@ -4363,7 +4381,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>39247</v>
       </c>
@@ -4374,7 +4392,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>39248</v>
       </c>
@@ -4385,7 +4403,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>39249</v>
       </c>
@@ -4396,7 +4414,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>39250</v>
       </c>
@@ -4407,7 +4425,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>39251</v>
       </c>
@@ -4418,7 +4436,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>39252</v>
       </c>
@@ -4429,7 +4447,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>39253</v>
       </c>
@@ -4440,7 +4458,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>39254</v>
       </c>
@@ -4451,7 +4469,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>39255</v>
       </c>
@@ -4462,7 +4480,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>39256</v>
       </c>
@@ -4473,7 +4491,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>39257</v>
       </c>
@@ -4484,7 +4502,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>39258</v>
       </c>
@@ -4495,7 +4513,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>39259</v>
       </c>
@@ -4506,7 +4524,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>39260</v>
       </c>
@@ -4517,7 +4535,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>39261</v>
       </c>
@@ -4528,7 +4546,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>39262</v>
       </c>
@@ -4539,7 +4557,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>39263</v>
       </c>
@@ -4550,7 +4568,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>39264</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>39265</v>
       </c>
@@ -4572,7 +4590,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>39266</v>
       </c>
@@ -4583,7 +4601,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>39267</v>
       </c>
@@ -4594,7 +4612,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>39268</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>39269</v>
       </c>
@@ -4616,7 +4634,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>39270</v>
       </c>
@@ -4627,7 +4645,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>39271</v>
       </c>
@@ -4638,7 +4656,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>39272</v>
       </c>
@@ -4649,7 +4667,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>39273</v>
       </c>
@@ -4660,7 +4678,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>39274</v>
       </c>
@@ -4671,7 +4689,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>39275</v>
       </c>
@@ -4682,7 +4700,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>39276</v>
       </c>
@@ -4693,7 +4711,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>39277</v>
       </c>
@@ -4704,7 +4722,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>39278</v>
       </c>
@@ -4715,7 +4733,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>39279</v>
       </c>
@@ -4726,7 +4744,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>39280</v>
       </c>
@@ -4737,7 +4755,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>39281</v>
       </c>
@@ -4748,7 +4766,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>39282</v>
       </c>
@@ -4759,7 +4777,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>39283</v>
       </c>
@@ -4770,7 +4788,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>39284</v>
       </c>
@@ -4781,7 +4799,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>39285</v>
       </c>
@@ -4792,7 +4810,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>39286</v>
       </c>
@@ -4803,7 +4821,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>39287</v>
       </c>
@@ -4814,7 +4832,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>39288</v>
       </c>
@@ -4822,7 +4840,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>39289</v>
       </c>
@@ -4833,7 +4851,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>39290</v>
       </c>
@@ -4844,7 +4862,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>39291</v>
       </c>
@@ -4855,7 +4873,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>39292</v>
       </c>
@@ -4866,7 +4884,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>39293</v>
       </c>
@@ -4877,7 +4895,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>39294</v>
       </c>
@@ -4888,7 +4906,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>39295</v>
       </c>
